--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5.128333112832462E-05</v>
+        <v>5.07435593108119E-05</v>
       </c>
       <c r="E2">
-        <v>5.128333112832462E-05</v>
+        <v>5.07435593108119E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999998658481188</v>
+        <v>0.9999987510404045</v>
       </c>
       <c r="E3">
-        <v>0.999998658481188</v>
+        <v>0.9999987510404045</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001258705643526728</v>
+        <v>0.001257508691300802</v>
       </c>
       <c r="E4">
-        <v>0.001258705643526728</v>
+        <v>0.001257508691300802</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0003366257626584916</v>
+        <v>0.0003370935981485177</v>
       </c>
       <c r="E5">
-        <v>0.0003366257626584916</v>
+        <v>0.0003370935981485177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.05086321932130879</v>
+        <v>0.05082270881061299</v>
       </c>
       <c r="E6">
-        <v>0.05086321932130879</v>
+        <v>0.05082270881061299</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9825951667524614</v>
+        <v>0.9979753499352461</v>
       </c>
       <c r="E7">
-        <v>0.01740483324753861</v>
+        <v>0.002024650064753941</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.982672150758708</v>
+        <v>0.4994972685212419</v>
       </c>
       <c r="E8">
-        <v>0.01732784924129205</v>
+        <v>0.5005027314787581</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.983319371299309</v>
+        <v>0.8662292693367433</v>
       </c>
       <c r="E9">
-        <v>0.01668062870069098</v>
+        <v>0.1337707306632567</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9824866626120701</v>
+        <v>0.9907412615257087</v>
       </c>
       <c r="E10">
-        <v>0.01751333738792993</v>
+        <v>0.009258738474291262</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9834331084352512</v>
+        <v>0.8451179720641857</v>
       </c>
       <c r="E11">
-        <v>0.01656689156474878</v>
+        <v>0.1548820279358143</v>
       </c>
       <c r="F11">
-        <v>1.3661789894104</v>
+        <v>1.466437101364136</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6.298960197616467E-08</v>
+        <v>6.161428462720524E-08</v>
       </c>
       <c r="E12">
-        <v>6.298960197616467E-08</v>
+        <v>6.161428462720524E-08</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999988063517</v>
+        <v>0.999999998842094</v>
       </c>
       <c r="E13">
-        <v>0.9999999988063517</v>
+        <v>0.999999998842094</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4.677141210595862E-05</v>
+        <v>4.663320743194811E-05</v>
       </c>
       <c r="E14">
-        <v>4.677141210595862E-05</v>
+        <v>4.663320743194811E-05</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0002242888405576169</v>
+        <v>0.0002252178284814003</v>
       </c>
       <c r="E15">
-        <v>0.0002242888405576169</v>
+        <v>0.0002252178284814003</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.03915814119299987</v>
+        <v>0.039419527049603</v>
       </c>
       <c r="E16">
-        <v>0.03915814119299987</v>
+        <v>0.039419527049603</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9986041340800897</v>
+        <v>0.999996439971073</v>
       </c>
       <c r="E17">
-        <v>0.001395865919910255</v>
+        <v>3.560028926985481E-06</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9984864016928786</v>
+        <v>0.5174829194037111</v>
       </c>
       <c r="E18">
-        <v>0.001513598307121389</v>
+        <v>0.4825170805962889</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9985564118646749</v>
+        <v>0.9649667707068637</v>
       </c>
       <c r="E19">
-        <v>0.00144358813532508</v>
+        <v>0.03503322929313635</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9983948371301404</v>
+        <v>0.9999993902871904</v>
       </c>
       <c r="E20">
-        <v>0.001605162869859567</v>
+        <v>6.097128095738924E-07</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9986598281210406</v>
+        <v>0.2261852967477547</v>
       </c>
       <c r="E21">
-        <v>0.001340171878959406</v>
+        <v>0.7738147032522453</v>
       </c>
       <c r="F21">
-        <v>2.059377193450928</v>
+        <v>2.279798984527588</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
